--- a/biology/Botanique/Orchis_singe/Orchis_singe.xlsx
+++ b/biology/Botanique/Orchis_singe/Orchis_singe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis simia
 L’Orchis singe (Orchis simia) est une espèce de plantes herbacées pérennes de la famille des Orchidacées. Il doit son nom commun à sa lèvre lobée qui imite la forme générale du corps d'un singe.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orchis macra
 Orchis tephrosanthos</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette orchidée haute de 20 à 40 (50) cm  est reconnaissable à sa floraison inversée : les fleurs du sommet de l'inflorescence s'ouvrent en effet avant celles de la base. Le labelle est fortement trilobé. Le lobe médian est divisé en deux lobes fins semblables aux lobes latéraux et présente un appendice intercalaire allongé. L'éperon, non nectarifère, plus court que le labelle, est incurvé vers le bas.
 </t>
@@ -574,9 +590,11 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orchis simia est voisine de l'orchis guerrier (Orchis militaris) avec laquelle elle peut s'hybrider. Elle s'hybride également avec Orchis purpurea, donnant des individus dont les fleurs ont la forme de O. simia mais de couleur plus foncée, rappelant O. purpurea[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orchis simia est voisine de l'orchis guerrier (Orchis militaris) avec laquelle elle peut s'hybrider. Elle s'hybride également avec Orchis purpurea, donnant des individus dont les fleurs ont la forme de O. simia mais de couleur plus foncée, rappelant O. purpurea.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De la mi-avril à juin (rarement début juillet).
 </t>
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En terrain calcaire, sec, en pleine lumière ou sous léger ombrage en zones de pelouses, de bois clairs, de garrigues sur sols rocailleux.
 </t>
@@ -667,9 +689,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce méditerranéenne-atlantique de l'Espagne à l'Angleterre, à l'Est jusqu'en Iran. Également présente en Afrique du Nord.Elle atteint sa limite nord sur le continent européen en Belgique, où elle est considérée comme très rare[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce méditerranéenne-atlantique de l'Espagne à l'Angleterre, à l'Est jusqu'en Iran. Également présente en Afrique du Nord.Elle atteint sa limite nord sur le continent européen en Belgique, où elle est considérée comme très rare.
 </t>
         </is>
       </c>
@@ -698,9 +722,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[3].Cette orchidée est cependant protégée dans diverses régions de France métropolitaine.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.Cette orchidée est cependant protégée dans diverses régions de France métropolitaine.
 </t>
         </is>
       </c>
